--- a/黑号.xlsx
+++ b/黑号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9192"/>
+    <workbookView windowWidth="25200" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="352">
   <si>
     <t>lu09301205</t>
   </si>
@@ -1027,6 +1027,66 @@
   </si>
   <si>
     <t>D13908954536</t>
+  </si>
+  <si>
+    <t>dxy2584964760</t>
+  </si>
+  <si>
+    <t>xiaoxiboa</t>
+  </si>
+  <si>
+    <t>yms13997513031</t>
+  </si>
+  <si>
+    <t>xxzz52Okk</t>
+  </si>
+  <si>
+    <t>j1825832599</t>
+  </si>
+  <si>
+    <t>x18371962350</t>
+  </si>
+  <si>
+    <t>jyzm123456zw</t>
+  </si>
+  <si>
+    <t>Q19081907251208</t>
+  </si>
+  <si>
+    <t>Fing766</t>
+  </si>
+  <si>
+    <t>zhaoqaz1353698</t>
+  </si>
+  <si>
+    <t>yhb198461</t>
+  </si>
+  <si>
+    <t>huo19980912</t>
+  </si>
+  <si>
+    <t>wxhhlh1314520</t>
+  </si>
+  <si>
+    <t>s3367730271</t>
+  </si>
+  <si>
+    <t>q83884255</t>
+  </si>
+  <si>
+    <t>cigufgf</t>
+  </si>
+  <si>
+    <t>lp13339623973</t>
+  </si>
+  <si>
+    <t>HYX318237804</t>
+  </si>
+  <si>
+    <t>kk15054721045</t>
+  </si>
+  <si>
+    <t>H13038089150</t>
   </si>
 </sst>
 </file>
@@ -1035,9 +1095,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1049,51 +1109,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,7 +1147,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,9 +1174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,25 +1197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1171,7 +1206,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,6 +1236,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1198,6 +1258,174 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1217,174 +1445,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1392,30 +1452,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1434,15 +1470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1454,6 +1481,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1475,6 +1511,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1487,8 +1547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1500,10 +1560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1512,133 +1572,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2001,15 +2061,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B359"/>
+  <dimension ref="A1:B382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="A364" sqref="A364"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="75.9473684210526" customWidth="1"/>
+    <col min="1" max="1" width="75.95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3808,6 +3868,121 @@
     <row r="359" spans="1:1">
       <c r="A359" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3826,7 +4001,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3843,7 +4018,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/黑号.xlsx
+++ b/黑号.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="354">
   <si>
     <t>lu09301205</t>
   </si>
@@ -1087,6 +1087,12 @@
   </si>
   <si>
     <t>H13038089150</t>
+  </si>
+  <si>
+    <t>wxid_r1ns2dsve57z22</t>
+  </si>
+  <si>
+    <t>hupeng7878</t>
   </si>
 </sst>
 </file>
@@ -1094,15 +1100,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1115,24 +1137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1146,6 +1153,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1155,50 +1170,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,21 +1193,42 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1251,6 +1243,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1261,7 +1267,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,19 +1321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,30 +1357,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1346,6 +1364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,19 +1387,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,12 +1441,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1421,30 +1451,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1452,6 +1458,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1466,6 +1511,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1493,65 +1558,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1560,10 +1566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1572,133 +1578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2061,10 +2067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B382"/>
+  <dimension ref="A1:B384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="A382" sqref="A382"/>
+      <selection activeCell="A391" sqref="A391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3983,6 +3989,16 @@
     <row r="382" spans="1:1">
       <c r="A382" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/黑号.xlsx
+++ b/黑号.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12015"/>
+    <workbookView windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="370">
   <si>
     <t>lu09301205</t>
   </si>
@@ -1093,6 +1093,55 @@
   </si>
   <si>
     <t>hupeng7878</t>
+  </si>
+  <si>
+    <t>wzf2374774142514</t>
+  </si>
+  <si>
+    <t>fp1201M</t>
+  </si>
+  <si>
+    <t>wxid_16akujmhvvqf22</t>
+  </si>
+  <si>
+    <t>w22218718802879
+（真名陈金连）</t>
+  </si>
+  <si>
+    <t>su-hai-yn</t>
+  </si>
+  <si>
+    <t>wxid_09wgzpzcskp322</t>
+  </si>
+  <si>
+    <t>sly291257361</t>
+  </si>
+  <si>
+    <t>LXS0611611</t>
+  </si>
+  <si>
+    <t>j11111qh</t>
+  </si>
+  <si>
+    <t>h13815602205</t>
+  </si>
+  <si>
+    <t>ysd774458965412</t>
+  </si>
+  <si>
+    <t>cgx1998119</t>
+  </si>
+  <si>
+    <t>fangyuan5201324</t>
+  </si>
+  <si>
+    <t>jjj999999</t>
+  </si>
+  <si>
+    <t>ctl0588</t>
+  </si>
+  <si>
+    <t>w83884255</t>
   </si>
 </sst>
 </file>
@@ -1100,10 +1149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1111,6 +1160,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1122,24 +1193,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,6 +1215,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1161,15 +1230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,6 +1241,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,14 +1269,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1207,43 +1276,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1267,7 +1316,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,7 +1358,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,19 +1424,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,139 +1496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,6 +1507,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1472,56 +1541,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1550,11 +1569,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,10 +1615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1578,139 +1627,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2067,15 +2119,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B384"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
-      <selection activeCell="A391" sqref="A391"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="A402" sqref="A402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="75.95" customWidth="1"/>
+    <col min="1" max="1" width="75.9473684210526" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -3999,6 +4051,91 @@
     <row r="384" spans="1:1">
       <c r="A384" t="s">
         <v>353</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="388" ht="28.2" spans="1:1">
+      <c r="A388" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -4017,7 +4154,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4034,7 +4171,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/黑号.xlsx
+++ b/黑号.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="424">
   <si>
     <t>lu09301205</t>
   </si>
@@ -1142,6 +1142,168 @@
   </si>
   <si>
     <t>w83884255</t>
+  </si>
+  <si>
+    <t>hwj20010701</t>
+  </si>
+  <si>
+    <t>A18844647456</t>
+  </si>
+  <si>
+    <t>myy20209420</t>
+  </si>
+  <si>
+    <t>vvvs444f</t>
+  </si>
+  <si>
+    <t>abc15048301059</t>
+  </si>
+  <si>
+    <t>Yy1131713204</t>
+  </si>
+  <si>
+    <t>cz18809408902</t>
+  </si>
+  <si>
+    <t>lovexp990406</t>
+  </si>
+  <si>
+    <t>y15919664087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H13038089150 </t>
+  </si>
+  <si>
+    <t>mdl112233445</t>
+  </si>
+  <si>
+    <t>deng18379469276s</t>
+  </si>
+  <si>
+    <t>WEN2442458675</t>
+  </si>
+  <si>
+    <t>M18196961890</t>
+  </si>
+  <si>
+    <t>t15832356207</t>
+  </si>
+  <si>
+    <t>VIP555999666</t>
+  </si>
+  <si>
+    <t>yuanyue19980122</t>
+  </si>
+  <si>
+    <t>n152666999</t>
+  </si>
+  <si>
+    <t>qzh20071206</t>
+  </si>
+  <si>
+    <t>hh15106842180</t>
+  </si>
+  <si>
+    <t>chen519527428</t>
+  </si>
+  <si>
+    <t>zcs1281638061</t>
+  </si>
+  <si>
+    <t>xzj2638974753</t>
+  </si>
+  <si>
+    <t>mtr15379510716</t>
+  </si>
+  <si>
+    <t>a41780201314521</t>
+  </si>
+  <si>
+    <t>a3010740486</t>
+  </si>
+  <si>
+    <t>mph1000005</t>
+  </si>
+  <si>
+    <t>wlj36260</t>
+  </si>
+  <si>
+    <t>md1339190751</t>
+  </si>
+  <si>
+    <t>wenjing13785566737</t>
+  </si>
+  <si>
+    <t>guoxinyi13140</t>
+  </si>
+  <si>
+    <t>qq2970662163</t>
+  </si>
+  <si>
+    <t>ww15250769714</t>
+  </si>
+  <si>
+    <t>luo1447696379</t>
+  </si>
+  <si>
+    <t>YL33445201314111</t>
+  </si>
+  <si>
+    <t>licongxiang139520</t>
+  </si>
+  <si>
+    <t>h18879755357</t>
+  </si>
+  <si>
+    <t>tu13414169479</t>
+  </si>
+  <si>
+    <t>wxid_tizqrf054u5n22</t>
+  </si>
+  <si>
+    <t>w2877828127</t>
+  </si>
+  <si>
+    <t>xc154427935</t>
+  </si>
+  <si>
+    <t>Juan520013</t>
+  </si>
+  <si>
+    <t>pok6651</t>
+  </si>
+  <si>
+    <t>kjuy35514</t>
+  </si>
+  <si>
+    <t>ysy415651</t>
+  </si>
+  <si>
+    <t>HY976587</t>
+  </si>
+  <si>
+    <t>Tao89651314</t>
+  </si>
+  <si>
+    <t>wkm1909781874</t>
+  </si>
+  <si>
+    <t>x13988649503</t>
+  </si>
+  <si>
+    <t>wjky921</t>
+  </si>
+  <si>
+    <t>zjq2022766564</t>
+  </si>
+  <si>
+    <t>xianliny1314</t>
+  </si>
+  <si>
+    <t>mameilan3300</t>
+  </si>
+  <si>
+    <t>qianqiuna</t>
   </si>
 </sst>
 </file>
@@ -1163,28 +1325,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1194,14 +1334,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1222,11 +1387,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1240,39 +1448,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,24 +1462,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1316,7 +1478,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,163 +1646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,26 +1672,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1541,45 +1683,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1607,6 +1710,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1615,10 +1777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1627,142 +1789,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2119,10 +2278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="A463" sqref="A463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="1"/>
@@ -4069,7 +4228,7 @@
       </c>
     </row>
     <row r="388" ht="28.2" spans="1:1">
-      <c r="A388" s="2" t="s">
+      <c r="A388" s="1" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4136,6 +4295,311 @@
     <row r="401" spans="1:1">
       <c r="A401" t="s">
         <v>345</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/黑号.xlsx
+++ b/黑号.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="442">
   <si>
     <t>lu09301205</t>
   </si>
@@ -1304,6 +1304,60 @@
   </si>
   <si>
     <t>qianqiuna</t>
+  </si>
+  <si>
+    <t>wjs2155</t>
+  </si>
+  <si>
+    <t>wdza0110</t>
+  </si>
+  <si>
+    <t>HUANxiaoniu991006</t>
+  </si>
+  <si>
+    <t>qq3274340483</t>
+  </si>
+  <si>
+    <t>wyh15129840533</t>
+  </si>
+  <si>
+    <t>wxid_sydf9we6e41622</t>
+  </si>
+  <si>
+    <t>zjj2653080479</t>
+  </si>
+  <si>
+    <t>wxid_iottuwhtkup322</t>
+  </si>
+  <si>
+    <t>wxid_mk7104c3952922</t>
+  </si>
+  <si>
+    <t>whr1209ok</t>
+  </si>
+  <si>
+    <t>tian15836628131</t>
+  </si>
+  <si>
+    <t>LOVEXIAOZHI8023</t>
+  </si>
+  <si>
+    <t>C15239184934</t>
+  </si>
+  <si>
+    <t>lyzx18185093690</t>
+  </si>
+  <si>
+    <t>hff2317</t>
+  </si>
+  <si>
+    <t>y1843988917</t>
+  </si>
+  <si>
+    <t>zhangzhangiz</t>
+  </si>
+  <si>
+    <t>penny_sister</t>
   </si>
 </sst>
 </file>
@@ -1325,16 +1379,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,10 +1403,62 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1380,49 +1486,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1431,32 +1495,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,13 +1532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,13 +1550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,13 +1568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,7 +1586,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1550,37 +1604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,43 +1616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,7 +1640,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,17 +1726,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1697,6 +1745,51 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1722,21 +1815,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1745,30 +1823,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1777,10 +1831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1789,139 +1843,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2278,10 +2335,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B462"/>
+  <dimension ref="A1:B480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="A463" sqref="A463"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="A479" sqref="A479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="1"/>
@@ -4600,6 +4657,96 @@
     <row r="462" spans="1:1">
       <c r="A462" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
